--- a/data/DMM  Governance/DMM  Governance20200101.xlsx
+++ b/data/DMM  Governance/DMM  Governance20200101.xlsx
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179">
